--- a/Growth_Data.xlsx
+++ b/Growth_Data.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuvin\matlab\MAGMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E7E253-5FB6-40EB-9739-CC0148AB2662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025E24C7-A7E5-422F-8E62-124E43B82882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -345,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -360,42 +371,100 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <f>A2+1</f>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <f t="shared" ref="A4:A11" si="0">A3+1</f>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>A11+1</f>
         <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/Growth_Data.xlsx
+++ b/Growth_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuvin\matlab\MAGMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025E24C7-A7E5-422F-8E62-124E43B82882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012C02BC-0777-4190-9C57-DF57C567962D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,55 +356,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.01</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.05</v>
+      </c>
+      <c r="C3">
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -412,58 +424,79 @@
       <c r="B6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.7</v>
+      </c>
+      <c r="C7">
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8">
+        <v>0.8</v>
+      </c>
+      <c r="C8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0.85</v>
+      </c>
+      <c r="C9">
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.9</v>
+      </c>
+      <c r="C10">
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.95</v>
+      </c>
+      <c r="C11">
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>A11+1</f>
         <v>10</v>
       </c>
       <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>0.01</v>
       </c>
     </row>

--- a/Growth_Data.xlsx
+++ b/Growth_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuvin\matlab\MAGMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012C02BC-0777-4190-9C57-DF57C567962D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438A0718-F9A5-408D-A7BB-0D2F29EA855B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Time (hr)</t>
+    <t>time (d)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>N (g/L)</t>
+  </si>
+  <si>
+    <t>Biomass (g/L)</t>
+  </si>
+  <si>
+    <t>P (g/L)</t>
   </si>
 </sst>
 </file>
@@ -74,8 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,148 +369,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.01</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2" s="1">
+        <f>0.06*0.148</f>
+        <v>8.879999999999999E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <f>28/1000</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <f>6.2/1000</f>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f>A2+1</f>
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.05</v>
-      </c>
-      <c r="C3">
-        <v>0.95</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <f>4*24</f>
+        <v>96</v>
+      </c>
+      <c r="B3" s="1">
+        <f>0.2*0.148</f>
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <f>23.74/1000</f>
+        <v>2.3739999999999997E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <f>1.34/1000</f>
+        <v>1.34E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f t="shared" ref="A4:A11" si="0">A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4">
-        <v>0.9</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <f>8*24</f>
+        <v>192</v>
+      </c>
+      <c r="B4" s="1">
+        <f>0.53*0.148</f>
+        <v>7.8439999999999996E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <f>15.19/1000</f>
+        <v>1.5189999999999999E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <f>0.53/1000</f>
+        <v>5.2999999999999998E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.2</v>
-      </c>
-      <c r="C5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.5</v>
-      </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.7</v>
-      </c>
-      <c r="C7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.8</v>
-      </c>
-      <c r="C8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.85</v>
-      </c>
-      <c r="C9">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.9</v>
-      </c>
-      <c r="C10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.95</v>
-      </c>
-      <c r="C11">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f>A11+1</f>
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0.01</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <f>14*24</f>
+        <v>336</v>
+      </c>
+      <c r="B5" s="1">
+        <f>0.64*0.148</f>
+        <v>9.4719999999999999E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <f>3.54/1000</f>
+        <v>3.5400000000000002E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <f>0.69/1000</f>
+        <v>6.8999999999999997E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Growth_Data.xlsx
+++ b/Growth_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuvin\matlab\MAGMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438A0718-F9A5-408D-A7BB-0D2F29EA855B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFED59E-7E20-4126-82C7-3EE547644E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,10 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>time (d)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>N (g/L)</t>
   </si>
   <si>
@@ -49,6 +45,9 @@
   </si>
   <si>
     <t>P (g/L)</t>
+  </si>
+  <si>
+    <t>time (hr)</t>
   </si>
 </sst>
 </file>
@@ -372,23 +371,23 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -396,8 +395,8 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <f>0.06*0.148</f>
-        <v>8.879999999999999E-3</v>
+        <f>0.06*0.05</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C2" s="1">
         <f>28/1000</f>
@@ -414,8 +413,8 @@
         <v>96</v>
       </c>
       <c r="B3" s="1">
-        <f>0.2*0.148</f>
-        <v>2.9600000000000001E-2</v>
+        <f>0.2*0.05</f>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="C3" s="1">
         <f>23.74/1000</f>
@@ -432,8 +431,8 @@
         <v>192</v>
       </c>
       <c r="B4" s="1">
-        <f>0.53*0.148</f>
-        <v>7.8439999999999996E-2</v>
+        <f>0.53*0.05</f>
+        <v>2.6500000000000003E-2</v>
       </c>
       <c r="C4" s="1">
         <f>15.19/1000</f>
@@ -450,8 +449,8 @@
         <v>336</v>
       </c>
       <c r="B5" s="1">
-        <f>0.64*0.148</f>
-        <v>9.4719999999999999E-2</v>
+        <f>0.64*0.05</f>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C5" s="1">
         <f>3.54/1000</f>
